--- a/mixs-templates/MigsVi_plus_combinations/MigsViAgriculture.xlsx
+++ b/mixs-templates/MigsVi_plus_combinations/MigsViAgriculture.xlsx
@@ -1364,12 +1364,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="14">
     <dataValidation sqref="V2:V1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"commensalism,free living,mutualism,parasitism,symbiotic"</formula1>
     </dataValidation>
     <dataValidation sqref="X2:X1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
+    </dataValidation>
+    <dataValidation sqref="Y2:Y1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Finished genome,High-quality draft genome,Medium-quality draft genome,Low-quality draft genome,Genome fragment(s)"</formula1>
     </dataValidation>
     <dataValidation sqref="AD2:AD1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
@@ -1382,6 +1385,9 @@
     </dataValidation>
     <dataValidation sqref="BY2:BY1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"brackish,canal,collected rainwater,ditch,estuary,freshwater,lake,manmade,melt pond,municipal,natural,pond,reservior,river,saline,storage tank,stream,well"</formula1>
+    </dataValidation>
+    <dataValidation sqref="CB2:CB1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autumn [NCIT:C94733],spring [NCIT:C94731],summer [NCIT:C94732],winter [NCIT:C94730]"</formula1>
     </dataValidation>
     <dataValidation sqref="EI2:EI1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobic,anaerobic,other"</formula1>
